--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44529</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>44067</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44743</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44013</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44831</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45105</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44915</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>44361</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44806</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>43551</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>43635</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44421</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44487</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44831</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>44860</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44867</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44911</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45104</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>45163</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43322</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43332</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43335</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43350</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43353</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43381</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43388</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43392</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43395</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43402</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43427</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43453</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43472</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43485</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43486</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43515</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43529</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43536</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43542</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43549</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43597</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43601</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43602</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>43605</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43616</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43635</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43642</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43649</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43655</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>43663</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>43668</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43683</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43697</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43706</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43707</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43717</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43718</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>43732</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43734</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>43742</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>43759</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43763</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43773</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43774</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43789</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43844</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43846</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43850</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43880</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>43881</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>43894</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43900</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>43944</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>43964</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43976</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>43986</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44012</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44015</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44021</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44046</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44056</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44075</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44076</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>44081</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>44082</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>44089</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44092</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44116</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44123</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44126</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44146</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>44151</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>44162</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>44179</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44215</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>44244</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         <v>44252</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44312</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44320</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44321</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44322</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44326</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44334</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44356</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>44363</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44364</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44365</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44368</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>44369</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>44371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44377</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44379</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44382</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44385</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44389</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44391</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44419</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44421</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44424</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44426</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44427</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44428</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44433</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44434</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44439</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44440</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44442</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>44452</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>44456</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44462</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44463</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>44473</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44483</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44484</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44487</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44488</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44489</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44490</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44501</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44511</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>44529</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44530</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44543</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>44551</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44552</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44580</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44589</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44621</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44624</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18182,7 +18182,7 @@
         <v>44657</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>44680</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>44690</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44692</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44699</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44715</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44721</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44732</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44735</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44738</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44739</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44740</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44743</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44746</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>44747</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>44750</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>44753</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44775</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44781</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44788</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44790</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>44792</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44797</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44804</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44806</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>44812</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>44813</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44817</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44818</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44819</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26029,7 +26029,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26210,7 +26210,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26267,7 +26267,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27410,7 +27410,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29096,7 +29096,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43353</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43392</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43396</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43472</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43485</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43597</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43601</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43616</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43668</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43683</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43686</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43697</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43717</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43773</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43844</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43846</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43881</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43944</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43976</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44015</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44046</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44075</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44081</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44089</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44116</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44123</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44126</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44151</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44179</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44244</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44326</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44356</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44363</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44364</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44365</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44368</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44385</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44391</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44419</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44426</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44439</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44456</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44462</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44483</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44490</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44552</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44559</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44589</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44624</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44692</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44721</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44735</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44738</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44739</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44743</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44746</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44747</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44750</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44775</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44790</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44797</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44812</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43353</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43392</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43396</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43472</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43485</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43597</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43601</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43616</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43668</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43683</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43686</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43697</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43717</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43773</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43844</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43846</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43881</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43944</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43976</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44015</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44046</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44075</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44081</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44089</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44116</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44123</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44126</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44151</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44179</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44244</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44326</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44356</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44363</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44364</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44365</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44368</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44385</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44391</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44419</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44426</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44439</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44456</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44462</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44483</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44490</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44552</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44559</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44589</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44624</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44692</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44721</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44735</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44738</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44739</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44743</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44746</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44747</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44750</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44775</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44790</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44797</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44812</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43353</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43392</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43396</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43472</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43485</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43597</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43601</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43616</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43668</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43683</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43686</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43697</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43717</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43773</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43844</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43846</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43881</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43944</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43976</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44015</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44046</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44075</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44081</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44089</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44116</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44123</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44126</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44151</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44179</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44244</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44326</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44356</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44363</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44364</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44365</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44368</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44385</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44391</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44419</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44426</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44439</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44456</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44462</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44483</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44490</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44552</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44559</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44589</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44624</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44692</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44721</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44735</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44738</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44739</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44743</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44746</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44747</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44750</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44775</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44790</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44797</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44812</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43353</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43392</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43396</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43472</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43485</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43597</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43601</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43616</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43668</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43683</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43686</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43697</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43717</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43773</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43844</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43846</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43881</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43944</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43976</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44015</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44046</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44075</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44081</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44089</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44116</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44123</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44126</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44151</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44179</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44244</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44326</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44356</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44363</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44364</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44365</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44368</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44385</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44391</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44419</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44426</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44439</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44456</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44462</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44483</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44490</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44552</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44559</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44589</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44624</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44692</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44721</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44735</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44738</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44739</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44743</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44746</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44747</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44750</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44775</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44790</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44797</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44812</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43353</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43392</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43396</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43472</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43485</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43597</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43601</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43616</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43668</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43683</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43686</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43697</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43717</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43773</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43844</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43846</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43881</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43944</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43976</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44015</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44046</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44075</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44081</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44089</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44116</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44123</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44126</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44151</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44179</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44244</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44326</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44356</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44363</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44364</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44365</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44368</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44385</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44391</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44419</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44426</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44439</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44456</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44462</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44483</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44490</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44552</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44559</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44589</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44624</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44692</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44721</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44735</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44738</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44739</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44743</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44746</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44747</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44750</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44775</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44790</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44797</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44812</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43353</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43392</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43396</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43472</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43485</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43597</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43601</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43616</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43668</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43683</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43686</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43697</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43717</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43773</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43844</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43846</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43881</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43944</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43976</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44015</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44046</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44075</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44081</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44089</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44116</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44123</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44126</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44151</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44179</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44244</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44326</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44356</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44363</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44364</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44365</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44368</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44385</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44391</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44419</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44426</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44439</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44456</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44462</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44483</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44490</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44552</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44559</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44589</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44624</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44692</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44721</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44735</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44738</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44739</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44743</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44746</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44747</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44750</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44775</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44790</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44797</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44812</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43353</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43392</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43396</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43472</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43485</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43597</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43601</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43616</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43668</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43683</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43686</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43697</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43717</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43773</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43844</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43846</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43881</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43944</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43976</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44015</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44046</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44075</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44081</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44089</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44116</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44123</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44126</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44151</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44179</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44244</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44326</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44356</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44363</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44364</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44365</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44368</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44385</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44391</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44419</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44426</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44439</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44456</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44462</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44483</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44490</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44552</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44559</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44589</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44624</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44692</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44721</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44735</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44738</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44739</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44743</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44746</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44747</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44750</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44775</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44790</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44797</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44812</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -651,27 +651,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 49975-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 49975-2021.xlsx", "A 49975-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 49975-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 49975-2021.png", "A 49975-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 49975-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 49975-2021.docx", "A 49975-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 49975-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 49975-2021.docx", "A 49975-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 49975-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 49975-2021.docx", "A 49975-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 49975-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 49975-2021.docx", "A 49975-2021")</f>
         <v/>
       </c>
     </row>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,27 +758,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 9860-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 9860-2021.xlsx", "A 9860-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 9860-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 9860-2021.png", "A 9860-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 9860-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 9860-2021.docx", "A 9860-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 9860-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 9860-2021.docx", "A 9860-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 9860-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 9860-2021.docx", "A 9860-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 9860-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 9860-2021.docx", "A 9860-2021")</f>
         <v/>
       </c>
     </row>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,27 +864,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 42552-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 42552-2022.xlsx", "A 42552-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 42552-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 42552-2022.png", "A 42552-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 42552-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 42552-2022.docx", "A 42552-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 42552-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 42552-2022.docx", "A 42552-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 42552-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 42552-2022.docx", "A 42552-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 42552-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 42552-2022.docx", "A 42552-2022")</f>
         <v/>
       </c>
     </row>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,27 +967,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 68385-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 68385-2021.xlsx", "A 68385-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 68385-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 68385-2021.png", "A 68385-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 68385-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 68385-2021.docx", "A 68385-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 68385-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 68385-2021.docx", "A 68385-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 68385-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 68385-2021.docx", "A 68385-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 68385-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 68385-2021.docx", "A 68385-2021")</f>
         <v/>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,27 +1069,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 39991-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 39991-2020.xlsx", "A 39991-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 39991-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 39991-2020.png", "A 39991-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 39991-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 39991-2020.docx", "A 39991-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 39991-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 39991-2020.docx", "A 39991-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 39991-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 39991-2020.docx", "A 39991-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 39991-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 39991-2020.docx", "A 39991-2020")</f>
         <v/>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,27 +1165,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 50304-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 50304-2022.xlsx", "A 50304-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 50304-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 50304-2022.png", "A 50304-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 50304-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 50304-2022.docx", "A 50304-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 50304-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 50304-2022.docx", "A 50304-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 50304-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 50304-2022.docx", "A 50304-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 50304-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 50304-2022.docx", "A 50304-2022")</f>
         <v/>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1263,27 +1263,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 28793-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 28793-2023.xlsx", "A 28793-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 28793-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 28793-2023.png", "A 28793-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 28793-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 28793-2023.docx", "A 28793-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 28793-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 28793-2023.docx", "A 28793-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 28793-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 28793-2023.docx", "A 28793-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 28793-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 28793-2023.docx", "A 28793-2023")</f>
         <v/>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,27 +1358,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 27740-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 27740-2022.xlsx", "A 27740-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 27740-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 27740-2022.png", "A 27740-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 27740-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 27740-2022.docx", "A 27740-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 27740-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 27740-2022.docx", "A 27740-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 27740-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 27740-2022.docx", "A 27740-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 27740-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 27740-2022.docx", "A 27740-2022")</f>
         <v/>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1452,27 +1452,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 31593-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 31593-2020.xlsx", "A 31593-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 31593-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 31593-2020.png", "A 31593-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 31593-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 31593-2020.docx", "A 31593-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 31593-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 31593-2020.docx", "A 31593-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 31593-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 31593-2020.docx", "A 31593-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 31593-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 31593-2020.docx", "A 31593-2020")</f>
         <v/>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,27 +1545,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 29088-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 29088-2023.xlsx", "A 29088-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 29088-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 29088-2023.png", "A 29088-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 29088-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 29088-2023.docx", "A 29088-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 29088-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 29088-2023.docx", "A 29088-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 29088-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 29088-2023.docx", "A 29088-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 29088-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 29088-2023.docx", "A 29088-2023")</f>
         <v/>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,27 +1637,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 33453-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 33453-2022.xlsx", "A 33453-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 33453-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 33453-2022.png", "A 33453-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 33453-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 33453-2022.docx", "A 33453-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 33453-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 33453-2022.docx", "A 33453-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 33453-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 33453-2022.docx", "A 33453-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 33453-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 33453-2022.docx", "A 33453-2022")</f>
         <v/>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,27 +1729,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 61137-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 61137-2022.xlsx", "A 61137-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 61137-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 61137-2022.png", "A 61137-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 61137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 61137-2022.docx", "A 61137-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 61137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 61137-2022.docx", "A 61137-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 61137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 61137-2022.docx", "A 61137-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 61137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 61137-2022.docx", "A 61137-2022")</f>
         <v/>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,27 +1820,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 29494-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 29494-2021.xlsx", "A 29494-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 29494-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 29494-2021.png", "A 29494-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 29494-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 29494-2021.docx", "A 29494-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 29494-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 29494-2021.docx", "A 29494-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 29494-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 29494-2021.docx", "A 29494-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 29494-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 29494-2021.docx", "A 29494-2021")</f>
         <v/>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1911,27 +1911,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 37113-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 37113-2022.xlsx", "A 37113-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 37113-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 37113-2022.png", "A 37113-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 37113-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 37113-2022.docx", "A 37113-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 37113-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 37113-2022.docx", "A 37113-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 37113-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 37113-2022.docx", "A 37113-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 37113-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 37113-2022.docx", "A 37113-2022")</f>
         <v/>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1996,27 +1996,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 17180-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 17180-2019.xlsx", "A 17180-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 17180-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 17180-2019.png", "A 17180-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 17180-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 17180-2019.docx", "A 17180-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 17180-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 17180-2019.docx", "A 17180-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 17180-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 17180-2019.docx", "A 17180-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 17180-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 17180-2019.docx", "A 17180-2019")</f>
         <v/>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,27 +2086,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 30414-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 30414-2019.xlsx", "A 30414-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 30414-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 30414-2019.png", "A 30414-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 30414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 30414-2019.docx", "A 30414-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 30414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 30414-2019.docx", "A 30414-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 30414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 30414-2019.docx", "A 30414-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 30414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 30414-2019.docx", "A 30414-2019")</f>
         <v/>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,27 +2176,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 31611-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 31611-2019.xlsx", "A 31611-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 31611-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 31611-2019.png", "A 31611-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 31611-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 31611-2019.docx", "A 31611-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 31611-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 31611-2019.docx", "A 31611-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 31611-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 31611-2019.docx", "A 31611-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 31611-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 31611-2019.docx", "A 31611-2019")</f>
         <v/>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2266,27 +2266,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 32173-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 32173-2019.xlsx", "A 32173-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 32173-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 32173-2019.png", "A 32173-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 32173-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 32173-2019.docx", "A 32173-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 32173-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 32173-2019.docx", "A 32173-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 32173-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 32173-2019.docx", "A 32173-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 32173-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 32173-2019.docx", "A 32173-2019")</f>
         <v/>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,27 +2356,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 33405-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 33405-2021.xlsx", "A 33405-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 33405-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 33405-2021.png", "A 33405-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 33405-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 33405-2021.docx", "A 33405-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 33405-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 33405-2021.docx", "A 33405-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 33405-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 33405-2021.docx", "A 33405-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 33405-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 33405-2021.docx", "A 33405-2021")</f>
         <v/>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2446,27 +2446,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 40800-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 40800-2021.xlsx", "A 40800-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 40800-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 40800-2021.png", "A 40800-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 40800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 40800-2021.docx", "A 40800-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 40800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 40800-2021.docx", "A 40800-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 40800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 40800-2021.docx", "A 40800-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 40800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 40800-2021.docx", "A 40800-2021")</f>
         <v/>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2536,27 +2536,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 57994-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 57994-2021.xlsx", "A 57994-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 57994-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 57994-2021.png", "A 57994-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 57994-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 57994-2021.docx", "A 57994-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 57994-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 57994-2021.docx", "A 57994-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 57994-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 57994-2021.docx", "A 57994-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 57994-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 57994-2021.docx", "A 57994-2021")</f>
         <v/>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,27 +2626,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 57926-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 57926-2021.xlsx", "A 57926-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 57926-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 57926-2021.png", "A 57926-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 57926-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 57926-2021.docx", "A 57926-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 57926-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 57926-2021.docx", "A 57926-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 57926-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 57926-2021.docx", "A 57926-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 57926-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 57926-2021.docx", "A 57926-2021")</f>
         <v/>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2716,27 +2716,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 39825-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 39825-2022.xlsx", "A 39825-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 39825-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 39825-2022.png", "A 39825-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 39825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 39825-2022.docx", "A 39825-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 39825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 39825-2022.docx", "A 39825-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 39825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 39825-2022.docx", "A 39825-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 39825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 39825-2022.docx", "A 39825-2022")</f>
         <v/>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,27 +2806,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 42556-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 42556-2022.xlsx", "A 42556-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 42556-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 42556-2022.png", "A 42556-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 42556-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 42556-2022.docx", "A 42556-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 42556-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 42556-2022.docx", "A 42556-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 42556-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 42556-2022.docx", "A 42556-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 42556-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 42556-2022.docx", "A 42556-2022")</f>
         <v/>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,27 +2891,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 49140-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 49140-2022.xlsx", "A 49140-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 49140-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 49140-2022.png", "A 49140-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 49140-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 49140-2022.docx", "A 49140-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 49140-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 49140-2022.docx", "A 49140-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 49140-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 49140-2022.docx", "A 49140-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 49140-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 49140-2022.docx", "A 49140-2022")</f>
         <v/>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2981,27 +2981,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 50949-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 50949-2022.xlsx", "A 50949-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 50949-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 50949-2022.png", "A 50949-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 50949-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 50949-2022.docx", "A 50949-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 50949-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 50949-2022.docx", "A 50949-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 50949-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 50949-2022.docx", "A 50949-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 50949-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 50949-2022.docx", "A 50949-2022")</f>
         <v/>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3071,27 +3071,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 60501-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 60501-2022.xlsx", "A 60501-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 60501-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 60501-2022.png", "A 60501-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 60501-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 60501-2022.docx", "A 60501-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 60501-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 60501-2022.docx", "A 60501-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 60501-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 60501-2022.docx", "A 60501-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 60501-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 60501-2022.docx", "A 60501-2022")</f>
         <v/>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3161,27 +3161,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 38755-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 38755-2023.xlsx", "A 38755-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 38755-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 38755-2023.png", "A 38755-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 38755-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 38755-2023.docx", "A 38755-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 38755-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 38755-2023.docx", "A 38755-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 38755-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 38755-2023.docx", "A 38755-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 38755-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 38755-2023.docx", "A 38755-2023")</f>
         <v/>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43353</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43392</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43396</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43472</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43485</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43597</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43601</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43616</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43668</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43683</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43686</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43697</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43717</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43773</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43844</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43846</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43881</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43944</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43976</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44015</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44046</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44075</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44081</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44089</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44116</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44123</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44126</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44151</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44179</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44244</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44326</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44356</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44363</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44364</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44365</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44368</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44385</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44391</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44419</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44426</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44439</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44456</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44462</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44483</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44490</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44552</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44559</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44589</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44624</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44692</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44721</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44735</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44738</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44739</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44743</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44746</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44747</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44750</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44775</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44790</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44797</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44812</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43322</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43353</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43381</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43388</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43392</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43396</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43472</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43485</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43515</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43542</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43597</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43601</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43602</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43605</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43616</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43668</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43683</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43686</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43697</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43717</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43718</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7694,7 +7694,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>43728</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43742</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43749</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43773</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43774</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43789</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43818</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43844</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43846</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43850</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43880</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43881</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43900</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43944</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43976</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43986</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44015</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44046</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44075</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44081</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44082</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44089</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44092</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>44111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44116</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44123</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44126</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44146</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44151</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44162</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44179</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44180</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44244</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44252</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44312</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44321</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44326</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44356</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44363</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44364</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44365</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44368</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44379</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44382</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44385</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44389</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44391</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44419</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44421</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44424</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44426</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44427</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44428</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44433</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44439</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44452</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44456</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44462</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44463</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44473</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44483</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44484</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44487</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44488</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44489</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44490</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44501</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44529</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44543</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44551</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44552</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44559</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44580</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44589</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44624</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44690</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44692</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44715</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44721</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44732</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44735</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44738</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44739</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44740</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44743</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44746</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44747</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44750</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>44753</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44775</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44781</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44788</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44790</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44797</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>44804</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44806</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44812</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44813</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44817</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44818</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44819</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>44823</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>44824</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44825</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44827</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44830</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44845</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44853</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44855</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>44861</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44865</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44866</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44868</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44869</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44876</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44883</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44885</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44888</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44892</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44903</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44904</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44909</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>44915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>44918</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44939</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44942</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44944</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44977</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44979</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44985</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44992</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45001</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45005</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45020</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45027</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45036</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45050</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45055</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45079</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45083</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>45084</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>45090</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45098</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45099</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45103</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45104</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45105</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45107</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45110</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45149</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>45152</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43551</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43635</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>43643</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>44487</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44819</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45163</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>43322</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>43350</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43381</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43388</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43472</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43485</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43515</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43536</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43542</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43572</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43597</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43601</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43616</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43663</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>43668</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43683</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43686</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43713</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43717</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>43773</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>43774</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43818</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43844</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43846</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43850</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43880</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>43894</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>43900</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43944</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>43976</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>43986</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44015</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>44046</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44056</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44076</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44081</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44089</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44092</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44116</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>44123</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44126</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44151</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44162</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>44179</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44215</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44244</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44252</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44312</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44320</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44321</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44322</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44326</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44334</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>44356</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>44363</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44364</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44365</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44368</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44371</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44377</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44379</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44382</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>44385</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>44389</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>44391</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>44419</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>44421</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44424</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44426</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44427</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44433</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>44434</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44439</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44441</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>44442</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44456</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44463</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>44473</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44474</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44483</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>44488</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44489</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44490</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>44497</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>44501</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44530</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44532</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44543</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44551</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44552</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44559</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44580</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44589</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44616</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44621</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44624</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44657</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>44680</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44690</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>44692</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44721</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>44732</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44735</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44738</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44739</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44740</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44743</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>44747</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44750</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44753</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44790</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>44792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44797</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44804</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44806</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44812</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44813</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>44817</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>44818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>44819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>44825</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44827</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44830</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44845</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44855</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44861</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44862</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>44865</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>44866</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
         <v>44867</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44876</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44883</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44885</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>44888</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44892</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44903</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>44904</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44909</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24822,7 +24822,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>44911</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44915</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44918</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44939</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44942</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44944</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>44946</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44957</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44977</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>44988</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>44992</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26225,7 +26225,7 @@
         <v>45001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>45005</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45013</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45027</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>45036</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>45044</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>45050</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>45072</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27202,7 +27202,7 @@
         <v>45079</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>45083</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>45090</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45098</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45099</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28635,7 +28635,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45104</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45105</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>45107</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45110</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>45111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45149</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45152</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1938,808 +1938,809 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
+          <t>A 39825-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44819</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ARVIDSJAUR</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 39825-2022.xlsx", "A 39825-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 39825-2022.png", "A 39825-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 39825-2022.docx", "A 39825-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 39825-2022.docx", "A 39825-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 39825-2022.docx", "A 39825-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 39825-2022.docx", "A 39825-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>A 17180-2019</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>43551</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ARVIDSJAUR</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARVIDSJAUR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1.6</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 17180-2019.xlsx", "A 17180-2019")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 17180-2019.png", "A 17180-2019")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 17180-2019.docx", "A 17180-2019")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 17180-2019.docx", "A 17180-2019")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 17180-2019.docx", "A 17180-2019")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 17180-2019.docx", "A 17180-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 30414-2019</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>43635</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ARVIDSJAUR</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ARVIDSJAUR</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>4.3</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 30414-2019.xlsx", "A 30414-2019")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 30414-2019.png", "A 30414-2019")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 30414-2019.docx", "A 30414-2019")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 30414-2019.docx", "A 30414-2019")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 30414-2019.docx", "A 30414-2019")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 30414-2019.docx", "A 30414-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 31611-2019</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>43642</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ARVIDSJAUR</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ARVIDSJAUR</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>21.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Vaddporing</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 31611-2019.xlsx", "A 31611-2019")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 31611-2019.png", "A 31611-2019")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 31611-2019.docx", "A 31611-2019")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 31611-2019.docx", "A 31611-2019")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 31611-2019.docx", "A 31611-2019")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 31611-2019.docx", "A 31611-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 32173-2019</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>43643</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ARVIDSJAUR</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ARVIDSJAUR</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>6.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 32173-2019.xlsx", "A 32173-2019")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 32173-2019.png", "A 32173-2019")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 32173-2019.docx", "A 32173-2019")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 32173-2019.docx", "A 32173-2019")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 32173-2019.docx", "A 32173-2019")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 32173-2019.docx", "A 32173-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 33405-2021</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44377</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ARVIDSJAUR</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARVIDSJAUR</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>3.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Korallrot</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 33405-2021.xlsx", "A 33405-2021")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 33405-2021.png", "A 33405-2021")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 33405-2021.docx", "A 33405-2021")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 33405-2021.docx", "A 33405-2021")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 33405-2021.docx", "A 33405-2021")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 33405-2021.docx", "A 33405-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 40800-2021</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44421</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ARVIDSJAUR</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="C22" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ARVIDSJAUR</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>2.9</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 40800-2021.xlsx", "A 40800-2021")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 40800-2021.png", "A 40800-2021")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 40800-2021.docx", "A 40800-2021")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 40800-2021.docx", "A 40800-2021")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 40800-2021.docx", "A 40800-2021")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 40800-2021.docx", "A 40800-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 57994-2021</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44487</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ARVIDSJAUR</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C23" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ARVIDSJAUR</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>12.9</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Kungsörn</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 57994-2021.xlsx", "A 57994-2021")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 57994-2021.png", "A 57994-2021")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 57994-2021.docx", "A 57994-2021")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 57994-2021.docx", "A 57994-2021")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 57994-2021.docx", "A 57994-2021")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 57994-2021.docx", "A 57994-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 57926-2021</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44487</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ARVIDSJAUR</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ARVIDSJAUR</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>28.6</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Tallticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 57926-2021.xlsx", "A 57926-2021")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 57926-2021.png", "A 57926-2021")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 57926-2021.docx", "A 57926-2021")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 57926-2021.docx", "A 57926-2021")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 57926-2021.docx", "A 57926-2021")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 57926-2021.docx", "A 57926-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 39825-2022</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44819</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARVIDSJAUR</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Skrovlig taggsvamp</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/artfynd/A 39825-2022.xlsx", "A 39825-2022")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/kartor/A 39825-2022.png", "A 39825-2022")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomål/A 39825-2022.docx", "A 39825-2022")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/klagomålsmail/A 39825-2022.docx", "A 39825-2022")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsyn/A 39825-2022.docx", "A 39825-2022")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARVIDSJAUR/tillsynsmail/A 39825-2022.docx", "A 39825-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
@@ -2750,7 +2751,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2841,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2926,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3016,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3105,7 +3106,7 @@
         <v>45161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3196,7 @@
         <v>45163</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3285,7 +3286,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3342,7 +3343,7 @@
         <v>43322</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3399,7 +3400,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3456,7 +3457,7 @@
         <v>43335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,7 +3514,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3570,7 +3571,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3632,7 +3633,7 @@
         <v>43350</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3689,7 +3690,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3746,7 +3747,7 @@
         <v>43381</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3803,7 +3804,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3860,7 +3861,7 @@
         <v>43388</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3922,7 +3923,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3979,7 +3980,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4036,7 +4037,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4098,7 +4099,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4155,7 +4156,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4212,7 +4213,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4274,7 +4275,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4331,7 +4332,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4393,7 +4394,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4450,7 +4451,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4507,7 +4508,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4569,7 +4570,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4626,7 +4627,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4683,7 +4684,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4740,7 +4741,7 @@
         <v>43472</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4803,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4860,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4916,7 +4917,7 @@
         <v>43485</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4974,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5030,7 +5031,7 @@
         <v>43515</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5087,7 +5088,7 @@
         <v>43518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5144,7 +5145,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5201,7 +5202,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5258,7 +5259,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5315,7 +5316,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5372,7 +5373,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5429,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5486,7 +5487,7 @@
         <v>43529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5543,7 +5544,7 @@
         <v>43536</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5600,7 +5601,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5657,7 +5658,7 @@
         <v>43542</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5714,7 +5715,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5771,7 +5772,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5828,7 +5829,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5885,7 +5886,7 @@
         <v>43572</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5942,7 +5943,7 @@
         <v>43597</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5999,7 +6000,7 @@
         <v>43601</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6056,7 +6057,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6118,7 +6119,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6180,7 +6181,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6242,7 +6243,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6304,7 +6305,7 @@
         <v>43602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6366,7 +6367,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6423,7 +6424,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6485,7 +6486,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6547,7 +6548,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6609,7 +6610,7 @@
         <v>43616</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6666,7 +6667,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6729,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6785,7 +6786,7 @@
         <v>43649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6847,7 +6848,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6909,7 +6910,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6966,7 +6967,7 @@
         <v>43663</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7023,7 +7024,7 @@
         <v>43668</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7086,7 @@
         <v>43683</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7142,7 +7143,7 @@
         <v>43686</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7199,7 +7200,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7256,7 +7257,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7313,7 +7314,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7370,7 +7371,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7427,7 +7428,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7490,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7551,7 +7552,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7609,7 @@
         <v>43713</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7666,7 @@
         <v>43717</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7728,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7785,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7842,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7904,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7965,7 +7966,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8027,7 +8028,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8084,7 +8085,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8141,7 +8142,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8203,7 +8204,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8265,7 +8266,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8322,7 +8323,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8379,7 +8380,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8441,7 +8442,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8498,7 +8499,7 @@
         <v>43773</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8560,7 +8561,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8622,7 +8623,7 @@
         <v>43774</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8684,7 +8685,7 @@
         <v>43789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8746,7 +8747,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8803,7 +8804,7 @@
         <v>43818</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8860,7 +8861,7 @@
         <v>43844</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8917,7 +8918,7 @@
         <v>43846</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8974,7 +8975,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9031,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9088,7 +9089,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9145,7 +9146,7 @@
         <v>43880</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9202,7 +9203,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9264,7 +9265,7 @@
         <v>43894</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9321,7 +9322,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9378,7 +9379,7 @@
         <v>43900</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9435,7 +9436,7 @@
         <v>43944</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9492,7 +9493,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9554,7 +9555,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9616,7 +9617,7 @@
         <v>43976</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9678,7 +9679,7 @@
         <v>43986</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9740,7 +9741,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9802,7 +9803,7 @@
         <v>44015</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9864,7 +9865,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9926,7 +9927,7 @@
         <v>44046</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9988,7 +9989,7 @@
         <v>44056</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10051,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10108,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10169,7 +10170,7 @@
         <v>44076</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10231,7 +10232,7 @@
         <v>44081</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10288,7 +10289,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10351,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10413,7 @@
         <v>44089</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10470,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10531,7 +10532,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10593,7 +10594,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10650,7 +10651,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10712,7 +10713,7 @@
         <v>44092</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10774,7 +10775,7 @@
         <v>44111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10831,7 +10832,7 @@
         <v>44116</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10888,7 +10889,7 @@
         <v>44123</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10950,7 +10951,7 @@
         <v>44126</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11007,7 +11008,7 @@
         <v>44131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11069,7 +11070,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11131,7 +11132,7 @@
         <v>44132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11193,7 +11194,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11250,7 +11251,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11307,7 +11308,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11364,7 +11365,7 @@
         <v>44151</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11421,7 +11422,7 @@
         <v>44162</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11478,7 +11479,7 @@
         <v>44179</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11536,7 @@
         <v>44180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11597,7 +11598,7 @@
         <v>44215</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11659,7 +11660,7 @@
         <v>44244</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11716,7 +11717,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11778,7 +11779,7 @@
         <v>44252</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11840,7 +11841,7 @@
         <v>44259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11897,7 +11898,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11954,7 +11955,7 @@
         <v>44312</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12011,7 +12012,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12068,7 +12069,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12125,7 +12126,7 @@
         <v>44320</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12182,7 +12183,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12240,7 @@
         <v>44321</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12296,7 +12297,7 @@
         <v>44322</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12353,7 +12354,7 @@
         <v>44326</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12410,7 +12411,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12467,7 +12468,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12524,7 +12525,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12581,7 +12582,7 @@
         <v>44334</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12638,7 +12639,7 @@
         <v>44356</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12695,7 +12696,7 @@
         <v>44363</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12757,7 +12758,7 @@
         <v>44364</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12814,7 +12815,7 @@
         <v>44365</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12876,7 +12877,7 @@
         <v>44368</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12938,7 +12939,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13000,7 +13001,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13062,7 +13063,7 @@
         <v>44369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13124,7 +13125,7 @@
         <v>44371</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13186,7 +13187,7 @@
         <v>44377</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13243,7 +13244,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13305,7 +13306,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13367,7 +13368,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13429,7 +13430,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13491,7 +13492,7 @@
         <v>44379</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13553,7 +13554,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13615,7 +13616,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13677,7 +13678,7 @@
         <v>44382</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13734,7 +13735,7 @@
         <v>44385</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13791,7 +13792,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13848,7 +13849,7 @@
         <v>44389</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13905,7 +13906,7 @@
         <v>44391</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13962,7 +13963,7 @@
         <v>44419</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14019,7 +14020,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14076,7 +14077,7 @@
         <v>44421</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14133,7 +14134,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14190,7 +14191,7 @@
         <v>44424</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14247,7 +14248,7 @@
         <v>44426</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14309,7 +14310,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14371,7 +14372,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14433,7 +14434,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14495,7 +14496,7 @@
         <v>44427</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14557,7 +14558,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14619,7 +14620,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14681,7 +14682,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14743,7 +14744,7 @@
         <v>44433</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14805,7 +14806,7 @@
         <v>44434</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14867,7 +14868,7 @@
         <v>44439</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14924,7 +14925,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14986,7 +14987,7 @@
         <v>44440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15048,7 +15049,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15105,7 +15106,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15167,7 +15168,7 @@
         <v>44441</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15224,7 +15225,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15286,7 +15287,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15348,7 +15349,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15410,7 +15411,7 @@
         <v>44442</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15472,7 +15473,7 @@
         <v>44445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15534,7 +15535,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15591,7 +15592,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15653,7 +15654,7 @@
         <v>44456</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15715,7 +15716,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15777,7 +15778,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15839,7 +15840,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15896,7 +15897,7 @@
         <v>44463</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15953,7 +15954,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16015,7 +16016,7 @@
         <v>44473</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16077,7 +16078,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16139,7 +16140,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16201,7 +16202,7 @@
         <v>44474</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16263,7 +16264,7 @@
         <v>44483</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16325,7 +16326,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16387,7 +16388,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16449,7 +16450,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16511,7 +16512,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16573,7 +16574,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16635,7 +16636,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16697,7 +16698,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16759,7 +16760,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16816,7 +16817,7 @@
         <v>44488</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,7 +16874,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16935,7 +16936,7 @@
         <v>44489</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16997,7 +16998,7 @@
         <v>44490</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17059,7 +17060,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17121,7 +17122,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17183,7 +17184,7 @@
         <v>44497</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17245,7 +17246,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17302,7 +17303,7 @@
         <v>44501</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17364,7 +17365,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17421,7 +17422,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17478,7 +17479,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17540,7 +17541,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17597,7 +17598,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17659,7 +17660,7 @@
         <v>44530</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17716,7 +17717,7 @@
         <v>44532</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17778,7 +17779,7 @@
         <v>44543</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17840,7 +17841,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17902,7 +17903,7 @@
         <v>44551</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17964,7 +17965,7 @@
         <v>44552</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18026,7 +18027,7 @@
         <v>44559</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18088,7 +18089,7 @@
         <v>44580</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18150,7 +18151,7 @@
         <v>44589</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18207,7 +18208,7 @@
         <v>44616</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18264,7 +18265,7 @@
         <v>44621</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18327,7 @@
         <v>44624</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18383,7 +18384,7 @@
         <v>44657</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18445,7 +18446,7 @@
         <v>44680</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18502,7 +18503,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18564,7 +18565,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18626,7 +18627,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18688,7 +18689,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18750,7 +18751,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18812,7 +18813,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18874,7 +18875,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18936,7 +18937,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18998,7 +18999,7 @@
         <v>44690</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19060,7 +19061,7 @@
         <v>44692</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19122,7 +19123,7 @@
         <v>44699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19179,7 +19180,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19236,7 +19237,7 @@
         <v>44704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19293,7 +19294,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19350,7 +19351,7 @@
         <v>44721</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19412,7 +19413,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19469,7 +19470,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19526,7 +19527,7 @@
         <v>44732</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19588,7 +19589,7 @@
         <v>44735</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19650,7 +19651,7 @@
         <v>44738</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19707,7 +19708,7 @@
         <v>44739</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19769,7 +19770,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19826,7 +19827,7 @@
         <v>44740</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19883,7 +19884,7 @@
         <v>44741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19945,7 +19946,7 @@
         <v>44743</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20007,7 +20008,7 @@
         <v>44746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20069,7 +20070,7 @@
         <v>44747</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20126,7 +20127,7 @@
         <v>44750</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20188,7 +20189,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20250,7 +20251,7 @@
         <v>44753</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20312,7 +20313,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20374,7 +20375,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20431,7 +20432,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20493,7 +20494,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20555,7 +20556,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20617,7 +20618,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20679,7 +20680,7 @@
         <v>44790</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20741,7 +20742,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20803,7 +20804,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20865,7 +20866,7 @@
         <v>44792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20927,7 +20928,7 @@
         <v>44797</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20984,7 +20985,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21041,7 +21042,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21098,7 +21099,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21155,7 +21156,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21212,7 +21213,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21269,7 +21270,7 @@
         <v>44804</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21326,7 +21327,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21388,7 +21389,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21450,7 +21451,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21512,7 +21513,7 @@
         <v>44806</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21574,7 +21575,7 @@
         <v>44812</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21636,7 +21637,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21698,7 +21699,7 @@
         <v>44813</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21760,7 +21761,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21817,7 +21818,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21874,7 +21875,7 @@
         <v>44817</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21931,7 +21932,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21993,7 +21994,7 @@
         <v>44818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22050,7 +22051,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22112,7 +22113,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22174,7 +22175,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22236,7 +22237,7 @@
         <v>44819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22298,7 +22299,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22355,7 +22356,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22417,7 +22418,7 @@
         <v>44825</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22474,7 +22475,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22536,7 +22537,7 @@
         <v>44827</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22598,7 +22599,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22655,7 +22656,7 @@
         <v>44830</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22712,7 +22713,7 @@
         <v>44845</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22769,7 +22770,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22831,7 +22832,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22893,7 +22894,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22955,7 +22956,7 @@
         <v>44855</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23012,7 +23013,7 @@
         <v>44860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23069,7 +23070,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23131,7 +23132,7 @@
         <v>44861</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23193,7 +23194,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23255,7 +23256,7 @@
         <v>44862</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23312,7 +23313,7 @@
         <v>44865</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23369,7 +23370,7 @@
         <v>44866</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23431,7 +23432,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23488,7 +23489,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23545,7 +23546,7 @@
         <v>44867</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23607,7 +23608,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23669,7 +23670,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23731,7 +23732,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23788,7 +23789,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23850,7 +23851,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23912,7 +23913,7 @@
         <v>44876</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23974,7 +23975,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24031,7 +24032,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24088,7 +24089,7 @@
         <v>44883</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24150,7 +24151,7 @@
         <v>44885</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24207,7 +24208,7 @@
         <v>44888</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24269,7 +24270,7 @@
         <v>44892</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24326,7 +24327,7 @@
         <v>44903</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24388,7 +24389,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24450,7 +24451,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24512,7 +24513,7 @@
         <v>44904</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24574,7 +24575,7 @@
         <v>44909</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24636,7 +24637,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24698,7 +24699,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24760,7 +24761,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24822,7 +24823,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24884,7 +24885,7 @@
         <v>44911</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24946,7 +24947,7 @@
         <v>44915</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25008,7 +25009,7 @@
         <v>44918</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25070,7 +25071,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25127,7 +25128,7 @@
         <v>44939</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25184,7 +25185,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25241,7 +25242,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25298,7 +25299,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25355,7 +25356,7 @@
         <v>44942</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25412,7 +25413,7 @@
         <v>44944</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25474,7 +25475,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25531,7 +25532,7 @@
         <v>44946</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25588,7 +25589,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25645,7 +25646,7 @@
         <v>44957</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25702,7 +25703,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25759,7 +25760,7 @@
         <v>44977</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25816,7 +25817,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25873,7 +25874,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25930,7 +25931,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25987,7 +25988,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26044,7 +26045,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26106,7 +26107,7 @@
         <v>44988</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26168,7 +26169,7 @@
         <v>44992</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26225,7 +26226,7 @@
         <v>45001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26287,7 +26288,7 @@
         <v>45005</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26349,7 +26350,7 @@
         <v>45013</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26406,7 +26407,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26468,7 +26469,7 @@
         <v>45027</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26530,7 +26531,7 @@
         <v>45036</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26587,7 +26588,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26649,7 +26650,7 @@
         <v>45044</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26711,7 +26712,7 @@
         <v>45050</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26768,7 +26769,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26830,7 +26831,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26892,7 +26893,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26954,7 +26955,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27016,7 +27017,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27078,7 +27079,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27140,7 +27141,7 @@
         <v>45072</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27202,7 +27203,7 @@
         <v>45079</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27264,7 +27265,7 @@
         <v>45083</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27321,7 +27322,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27378,7 +27379,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27435,7 +27436,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27492,7 +27493,7 @@
         <v>45090</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27549,7 +27550,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27611,7 +27612,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27673,7 +27674,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27735,7 +27736,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27798,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27859,7 +27860,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27921,7 +27922,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27983,7 +27984,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28045,7 +28046,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28102,7 +28103,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28164,7 +28165,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28221,7 +28222,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28278,7 +28279,7 @@
         <v>45098</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28335,7 +28336,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28397,7 +28398,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28459,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28521,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28578,7 +28579,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28635,7 +28636,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28692,7 +28693,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28749,7 +28750,7 @@
         <v>45104</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28811,7 +28812,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28868,7 +28869,7 @@
         <v>45105</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28925,7 +28926,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28987,7 +28988,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29049,7 +29050,7 @@
         <v>45107</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29111,7 +29112,7 @@
         <v>45110</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29173,7 +29174,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29235,7 +29236,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29297,7 +29298,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29359,7 +29360,7 @@
         <v>45111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29421,7 +29422,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29483,7 +29484,7 @@
         <v>45149</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29545,7 +29546,7 @@
         <v>45152</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29607,7 +29608,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43551</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43635</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43642</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43643</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44421</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45163</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43322</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43350</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43381</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43388</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43472</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43485</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43515</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43536</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43542</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43572</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43597</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43601</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43616</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43663</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43668</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43683</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43686</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43713</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43717</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43773</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43774</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43818</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43844</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43846</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43880</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43894</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43900</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43944</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43976</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>43986</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44015</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44046</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44056</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44076</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44081</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44089</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44092</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44116</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44123</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44126</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44151</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44162</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44179</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44215</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44244</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44252</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44312</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44320</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44321</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44322</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44326</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>44334</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>44356</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44363</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44364</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44365</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44368</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44371</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44377</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44379</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44382</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44385</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44389</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44391</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44419</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44421</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44424</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44426</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44427</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44433</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>44434</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44439</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44441</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44442</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44456</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44463</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44473</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44474</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44483</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44488</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44489</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44490</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>44497</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44501</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44530</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44532</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44543</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44551</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44552</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44559</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44580</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44589</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44616</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44621</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44624</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44657</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44680</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44690</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44692</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44721</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44732</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>44735</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44738</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44739</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44740</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44743</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44747</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44750</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44753</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44790</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>44797</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44804</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44806</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44812</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44813</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44817</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>44825</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44827</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44830</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44845</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44855</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44861</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44862</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44865</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44866</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44867</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44876</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44883</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>44885</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>44888</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>44892</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>44903</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44904</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44909</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24823,7 +24823,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44911</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44915</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44918</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>44939</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>44942</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44944</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>44946</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44957</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>44977</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44988</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>44992</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45005</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45013</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45027</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45036</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45044</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45050</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>45072</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>45079</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>45083</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>45090</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45098</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28579,7 +28579,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28750,7 +28750,7 @@
         <v>45104</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28869,7 +28869,7 @@
         <v>45105</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45107</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45110</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>45149</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>45152</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43551</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43635</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43642</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43643</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44421</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45163</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43322</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43350</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43381</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43388</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43472</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43485</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43515</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43536</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43542</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43572</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43597</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43601</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43616</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43663</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43668</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43683</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43686</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43713</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43717</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43773</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43774</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43818</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43844</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43846</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43880</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43894</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43900</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43944</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43976</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>43986</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44015</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44046</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44056</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44076</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44081</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44089</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44092</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44116</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44123</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44126</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44151</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44162</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44179</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44215</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44244</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44252</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44312</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44320</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44321</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44322</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44326</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>44334</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>44356</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44363</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44364</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44365</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44368</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44371</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44377</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44379</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44382</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44385</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44389</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44391</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44419</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44421</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44424</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44426</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44427</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44433</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>44434</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44439</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44441</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44442</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44456</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44463</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44473</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44474</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44483</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44488</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44489</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44490</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>44497</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44501</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44530</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44532</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44543</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44551</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44552</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44559</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44580</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44589</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44616</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44621</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44624</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44657</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44680</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44690</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44692</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44721</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44732</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>44735</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44738</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44739</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44740</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44743</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44747</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44750</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44753</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44790</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>44797</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44804</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44806</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44812</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44813</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44817</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>44825</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44827</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44830</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44845</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44855</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44861</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44862</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44865</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44866</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44867</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44876</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44883</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>44885</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>44888</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>44892</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>44903</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44904</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44909</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24823,7 +24823,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44911</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44915</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44918</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>44939</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>44942</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44944</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>44946</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44957</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>44977</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44988</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>44992</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45005</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45013</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45027</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45036</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45044</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45050</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>45072</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>45079</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>45083</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>45090</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45098</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28579,7 +28579,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28750,7 +28750,7 @@
         <v>45104</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28869,7 +28869,7 @@
         <v>45105</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45107</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45110</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>45149</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>45152</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43551</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43635</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43642</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43643</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44421</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45163</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43322</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43350</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43381</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43388</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43472</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43485</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43515</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43536</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43542</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43572</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43597</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43601</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43616</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43663</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43668</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43683</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43686</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43713</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43717</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43773</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43774</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43818</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43844</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43846</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43880</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43894</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43900</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43944</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43976</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>43986</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44015</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44046</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44056</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44076</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44081</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44089</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44092</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44116</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44123</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44126</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44151</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44162</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44179</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44215</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44244</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44252</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44312</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44320</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44321</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44322</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44326</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>44334</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>44356</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44363</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44364</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44365</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44368</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44371</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44377</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44379</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44382</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44385</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44389</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44391</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44419</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44421</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44424</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44426</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44427</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44433</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>44434</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44439</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44441</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44442</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44456</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44463</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44473</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44474</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44483</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44488</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44489</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44490</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>44497</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44501</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44530</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44532</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44543</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44551</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44552</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44559</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44580</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44589</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44616</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44621</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44624</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44657</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44680</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44690</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44692</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44721</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44732</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>44735</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44738</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44739</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44740</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44743</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44747</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44750</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44753</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44790</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>44797</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44804</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44806</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44812</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44813</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44817</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>44825</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44827</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44830</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44845</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44855</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44861</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44862</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44865</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44866</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44867</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44876</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44883</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>44885</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>44888</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>44892</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>44903</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44904</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44909</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24823,7 +24823,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44911</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44915</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44918</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>44939</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>44942</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44944</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>44946</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44957</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>44977</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44988</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>44992</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45005</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45013</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45027</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45036</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45044</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45050</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>45072</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>45079</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>45083</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>45090</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45098</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28579,7 +28579,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28750,7 +28750,7 @@
         <v>45104</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28869,7 +28869,7 @@
         <v>45105</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45107</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45110</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>45149</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>45152</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43551</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43635</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43642</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43643</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44421</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45163</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43322</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43350</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43381</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43388</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43472</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43485</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43515</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43536</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43542</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43572</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43597</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43601</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43616</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43663</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43668</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43683</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43686</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43713</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43717</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43773</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43774</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43818</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43844</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43846</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43880</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43894</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43900</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43944</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43976</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>43986</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44015</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44046</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44056</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44076</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44081</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44089</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44092</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44116</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44123</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44126</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44151</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44162</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44179</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44215</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44244</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44252</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44312</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44320</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44321</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44322</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44326</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>44334</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>44356</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44363</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44364</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44365</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44368</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44371</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44377</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44379</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44382</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44385</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44389</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44391</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44419</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44421</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44424</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44426</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44427</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44433</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>44434</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44439</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44441</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44442</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44456</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44463</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44473</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44474</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44483</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44488</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44489</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44490</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>44497</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44501</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44530</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44532</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44543</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44551</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44552</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44559</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44580</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44589</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44616</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44621</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44624</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44657</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44680</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44690</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44692</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44721</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44732</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>44735</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44738</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44739</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44740</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44743</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44747</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44750</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44753</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44790</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>44797</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44804</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44806</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44812</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44813</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44817</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>44825</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44827</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44830</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44845</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44855</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44861</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44862</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44865</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44866</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44867</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44876</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44883</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>44885</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>44888</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>44892</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>44903</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44904</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44909</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24823,7 +24823,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44911</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44915</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44918</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>44939</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>44942</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44944</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>44946</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44957</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>44977</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44988</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>44992</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45005</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45013</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45027</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45036</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45044</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45050</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>45072</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>45079</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>45083</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>45090</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45098</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28579,7 +28579,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28750,7 +28750,7 @@
         <v>45104</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28869,7 +28869,7 @@
         <v>45105</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45107</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45110</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>45149</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>45152</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -572,7 +572,7 @@
         <v>44456</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44831</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44529</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44067</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44865</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45104</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45105</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44788</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44915</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>44361</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44806</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43551</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43635</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43642</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43643</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44421</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44487</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44487</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44831</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>44860</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44867</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>44911</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45163</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43322</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43322</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43332</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43350</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43350</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43381</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43388</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43388</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43395</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43396</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43472</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43485</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43515</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43529</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43536</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43542</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43572</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43597</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43601</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43602</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>43602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43605</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43605</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43614</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43616</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43649</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43663</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43663</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43668</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43683</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43686</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43706</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43706</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43707</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43713</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43717</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>43718</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43728</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43728</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43742</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43773</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43774</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>43789</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43818</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43818</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43844</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43846</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43850</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43880</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43880</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43894</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43900</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43944</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43964</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43976</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>43986</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44012</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44015</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44046</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44056</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44075</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44076</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44081</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44082</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44082</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44089</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44092</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44116</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44123</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44126</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44132</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44146</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44151</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44162</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44179</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44215</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44244</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44252</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44252</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44312</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44312</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44320</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44320</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44321</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44321</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44322</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44326</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>44334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>44334</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>44356</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44363</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44364</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44365</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44368</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44369</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44371</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44377</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44379</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44379</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44379</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44379</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44382</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44382</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44382</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44385</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44389</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44389</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44391</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44419</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44421</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44421</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44424</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44424</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44426</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44427</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44427</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44427</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>44428</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44433</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>44433</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>44434</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44439</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44441</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44441</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44442</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44442</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44452</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44456</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44463</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44463</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44473</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44473</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44474</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44474</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44483</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44484</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44487</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44488</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44488</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44489</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44489</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>44490</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44497</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>44497</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>44497</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44501</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44501</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>44511</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44529</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44529</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44530</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44530</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44532</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44543</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44551</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44551</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44552</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44559</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44580</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44589</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44616</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44621</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44624</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44657</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>44680</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>44690</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>44690</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>44690</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44690</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44690</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44690</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44690</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44690</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44690</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44692</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44699</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44715</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44721</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44732</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44732</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44732</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>44735</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44738</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44739</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44740</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44740</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44743</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44747</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44750</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44753</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44753</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>44781</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>44788</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44788</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44788</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44790</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44792</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>44797</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>44804</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44804</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44804</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44804</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44804</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44804</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44806</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44806</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44806</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44806</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44812</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44813</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44813</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44817</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44817</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44818</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44818</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44819</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44819</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44819</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44819</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>44825</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44827</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44827</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44830</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>44830</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44845</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44855</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44860</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44861</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44861</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44862</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44862</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44865</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44866</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44867</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44867</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44868</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44868</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44869</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44876</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>44883</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>44883</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44883</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>44885</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>44888</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>44892</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>44903</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>44904</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44904</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44904</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44909</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44911</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44911</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24823,7 +24823,7 @@
         <v>44911</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44911</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44915</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44918</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44939</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>44939</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>44942</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>44942</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>44942</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44944</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44946</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25532,7 +25532,7 @@
         <v>44946</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25589,7 +25589,7 @@
         <v>44957</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44957</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>44977</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>44977</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>44979</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>44985</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44988</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>44992</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45005</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45013</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45020</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45027</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45036</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45044</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45044</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45050</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45055</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45055</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45055</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>45055</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>45072</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>45079</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>45083</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>45090</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>45090</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45093</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45097</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45097</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45097</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>45098</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>45098</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45098</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>45099</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45099</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28579,7 +28579,7 @@
         <v>45103</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         <v>45103</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28750,7 +28750,7 @@
         <v>45104</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28812,7 +28812,7 @@
         <v>45105</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28869,7 +28869,7 @@
         <v>45105</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         <v>45107</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         <v>45107</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45107</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45110</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
         <v>45111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>45149</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>45149</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>45152</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
